--- a/Classes.xlsx
+++ b/Classes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04BCFDC-144C-49EB-B4D3-700CFC2F606E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2090E77E-9A59-40A2-A3EB-A2CB77110127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DDF51441-3BE2-4527-9A8E-2C1E9384BB5E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{DDF51441-3BE2-4527-9A8E-2C1E9384BB5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Material" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="20">
   <si>
     <t>Classe</t>
   </si>
@@ -518,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95437BA-9BF8-4460-8CA0-2AB4C74AC9E7}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -641,10 +641,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994D130C-4CA7-44D8-BF53-5F6C8A606C8D}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C7" sqref="C7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -795,6 +795,27 @@
         <v>563</v>
       </c>
     </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1">
+        <f>SUM(D2:D6)</f>
+        <v>6459</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" ref="E7:G7" si="0">SUM(E2:E6)</f>
+        <v>5167</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>645</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>647</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -802,10 +823,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2665154-B7AB-41C9-9A31-8694EA335804}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1125,6 +1146,27 @@
         <v>398</v>
       </c>
     </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="1">
+        <f>SUM(E2:E12)</f>
+        <v>6447</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" ref="F13:H13" si="0">SUM(F2:F12)</f>
+        <v>5157</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="0"/>
+        <v>644</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="0"/>
+        <v>646</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
